--- a/nhomweb.xlsx
+++ b/nhomweb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="376">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -325,6 +325,9 @@
     <t xml:space="preserve">Đại học chính quy - ngành Công nghệ thông tin - K.19 - Lớp 2</t>
   </si>
   <si>
+    <t xml:space="preserve">duy@gmial.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">3119410078</t>
   </si>
   <si>
@@ -694,6 +697,9 @@
     <t xml:space="preserve">3118410270</t>
   </si>
   <si>
+    <t xml:space="preserve">minh@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
@@ -937,6 +943,9 @@
     <t xml:space="preserve">Tài</t>
   </si>
   <si>
+    <t xml:space="preserve">quoc@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
@@ -965,6 +974,9 @@
   </si>
   <si>
     <t xml:space="preserve">Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
@@ -1424,7 +1436,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+      <selection pane="topLeft" activeCell="Q45" activeCellId="0" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1834,7 +1846,9 @@
         <v>100</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
     </row>
@@ -1843,57 +1857,57 @@
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>82</v>
@@ -1904,22 +1918,22 @@
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
@@ -1928,48 +1942,48 @@
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>49</v>
@@ -1978,104 +1992,104 @@
         <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>62</v>
@@ -2084,22 +2098,22 @@
     </row>
     <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
@@ -2108,124 +2122,124 @@
     </row>
     <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>82</v>
@@ -2236,16 +2250,16 @@
     </row>
     <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>49</v>
@@ -2254,106 +2268,106 @@
         <v>50</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>82</v>
@@ -2364,52 +2378,54 @@
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>82</v>
@@ -2420,48 +2436,48 @@
     </row>
     <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>32</v>
@@ -2470,10 +2486,10 @@
         <v>33</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>82</v>
@@ -2484,16 +2500,16 @@
     </row>
     <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>39</v>
@@ -2502,42 +2518,42 @@
         <v>40</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>27</v>
@@ -2548,124 +2564,124 @@
     </row>
     <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>62</v>
@@ -2674,28 +2690,28 @@
     </row>
     <row r="41" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>27</v>
@@ -2704,16 +2720,16 @@
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>39</v>
@@ -2722,62 +2738,62 @@
         <v>40</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>99</v>
@@ -2786,54 +2802,56 @@
         <v>100</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>86</v>
@@ -2842,98 +2860,100 @@
         <v>87</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>45</v>
@@ -2942,112 +2962,112 @@
     </row>
     <row r="50" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>14</v>
@@ -3056,30 +3076,30 @@
         <v>15</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>93</v>
@@ -3088,10 +3108,10 @@
         <v>94</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>29</v>
@@ -3102,37 +3122,43 @@
     </row>
     <row r="55" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" display="duy@gmial.com"/>
+    <hyperlink ref="H31" r:id="rId2" display="minh@gmail.com"/>
+    <hyperlink ref="H44" r:id="rId3" display="quoc@gmail.com"/>
+    <hyperlink ref="H46" r:id="rId4" display="thanh@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/nhomweb.xlsx
+++ b/nhomweb.xlsx
@@ -1435,7 +1435,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q45" activeCellId="0" sqref="Q45"/>
     </sheetView>
   </sheetViews>
